--- a/데이터 명세.xlsx
+++ b/데이터 명세.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTL\Desktop\LG Aimers Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTL\Documents\GitHub\LG-Aimers-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF4B0D0-B1BC-4097-95BB-2B969A65469C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15490692-41B6-44B9-BDD4-15221B5E1415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA19DC8F-9B0C-4123-9D80-76730E032BF2}"/>
   </bookViews>
@@ -741,7 +741,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,6 +930,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1214,6 +1220,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1593,7 +1605,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1660,38 +1672,38 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -1764,148 +1776,148 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -1980,40 +1992,40 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -2034,76 +2046,76 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -2162,22 +2174,22 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
@@ -2216,58 +2228,58 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
@@ -2288,22 +2300,22 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
@@ -2322,20 +2334,20 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="7">
         <v>0</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
@@ -2434,20 +2446,20 @@
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="7">
         <v>0</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
@@ -2466,36 +2478,36 @@
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="7">
         <v>0</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="7">
         <v>0</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
@@ -2548,22 +2560,22 @@
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
@@ -2620,142 +2632,142 @@
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="D59" s="7">
+        <v>1</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="D61" s="7">
+        <v>1</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="D62" s="7">
+        <v>1</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="3">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="D63" s="7">
+        <v>1</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="7">
         <v>0</v>
       </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="7">
         <v>0</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="7">
         <v>0</v>
       </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">

--- a/데이터 명세.xlsx
+++ b/데이터 명세.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTL\Documents\GitHub\LG-Aimers-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15490692-41B6-44B9-BDD4-15221B5E1415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE569DB-CE85-488D-BE7D-1DE942271EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA19DC8F-9B0C-4123-9D80-76730E032BF2}"/>
   </bookViews>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>배아 생성 주요 이유</t>
-  </si>
-  <si>
-    <t>총 시술 횟수</t>
   </si>
   <si>
     <t>IVF 및 DI 포함한 전체 시술 횟수</t>
@@ -564,6 +561,10 @@
   </si>
   <si>
     <t>IVF 또는 DI 시술 여부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 시술 횟수</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1604,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA87C3D-28BB-48EC-B99F-1013E1304AD3}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1620,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1640,10 +1641,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -1658,10 +1659,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1695,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -1713,10 +1714,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1735,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1771,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1789,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -1807,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -1825,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -1843,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -1861,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -1879,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -1897,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -1915,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -1933,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1951,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1969,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1987,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -2005,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -2023,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -2041,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -2059,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -2077,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -2095,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -2113,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -2125,16 +2126,16 @@
         <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2142,16 +2143,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -2160,16 +2161,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -2178,16 +2179,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="D32" s="7">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -2196,16 +2197,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -2214,16 +2215,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D34" s="3">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -2232,16 +2233,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="D35" s="7">
         <v>1</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F35" s="8"/>
     </row>
@@ -2250,16 +2251,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="D36" s="7">
         <v>1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F36" s="8"/>
     </row>
@@ -2268,16 +2269,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="D37" s="7">
         <v>1</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -2286,16 +2287,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D38" s="3">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38" s="1"/>
     </row>
@@ -2304,16 +2305,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="D39" s="7">
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F39" s="8"/>
     </row>
@@ -2322,10 +2323,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -2338,10 +2339,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="D41" s="7">
         <v>0</v>
@@ -2354,10 +2355,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -2370,10 +2371,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -2386,10 +2387,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -2402,10 +2403,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -2418,10 +2419,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -2434,10 +2435,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -2450,10 +2451,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="D48" s="7">
         <v>0</v>
@@ -2466,10 +2467,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -2482,10 +2483,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="D50" s="7">
         <v>0</v>
@@ -2498,10 +2499,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="D51" s="7">
         <v>0</v>
@@ -2514,10 +2515,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
@@ -2530,10 +2531,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -2546,16 +2547,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F54" s="1"/>
     </row>
@@ -2564,16 +2565,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" s="7">
-        <v>1</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="F55" s="8"/>
     </row>
@@ -2582,16 +2583,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D56" s="3">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -2600,16 +2601,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F57" s="1"/>
     </row>
@@ -2618,16 +2619,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D58" s="3">
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -2636,16 +2637,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="D59" s="7">
         <v>1</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F59" s="8"/>
     </row>
@@ -2654,16 +2655,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="D60" s="7">
         <v>1</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F60" s="8"/>
     </row>
@@ -2672,16 +2673,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="D61" s="7">
         <v>1</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F61" s="8"/>
     </row>
@@ -2690,16 +2691,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D62" s="7">
         <v>1</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F62" s="8"/>
     </row>
@@ -2708,16 +2709,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D63" s="7">
         <v>1</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F63" s="8"/>
     </row>
@@ -2726,10 +2727,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="D64" s="7">
         <v>0</v>
@@ -2742,10 +2743,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="D65" s="7">
         <v>0</v>
@@ -2758,10 +2759,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="D66" s="7">
         <v>0</v>
@@ -2774,10 +2775,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D67" s="3">
         <v>0</v>
@@ -2790,10 +2791,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
@@ -2806,16 +2807,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F69" s="1"/>
     </row>
